--- a/formshare/tests/resources/forms/form10.xlsx
+++ b/formshare/tests/resources/forms/form10.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Solo una prueba</t>
@@ -185,6 +188,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -235,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,10 +273,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,7 +359,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.69"/>
@@ -497,7 +497,7 @@
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
@@ -517,7 +517,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -528,7 +528,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -561,7 +561,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -572,7 +572,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -590,13 +590,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="246" zoomScaleNormal="246" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
@@ -610,13 +610,19 @@
       <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
